--- a/data.xlsx
+++ b/data.xlsx
@@ -37,13 +37,13 @@
     <x:t>9.2</x:t>
   </x:si>
   <x:si>
-    <x:t>2h 22min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0111161/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0111161/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_1</x:t>
+    <x:t>2h 22min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0111161/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0111161/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_1</x:t>
   </x:si>
   <x:si>
     <x:t>The Godfather</x:t>
@@ -52,13 +52,13 @@
     <x:t>9.1</x:t>
   </x:si>
   <x:si>
-    <x:t>2h 55min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0068646/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0068646/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_2</x:t>
+    <x:t>2h 55min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0068646/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0068646/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_2</x:t>
   </x:si>
   <x:si>
     <x:t>The Godfather: Part II</x:t>
@@ -67,25 +67,25 @@
     <x:t>9.0</x:t>
   </x:si>
   <x:si>
-    <x:t>3h 22min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0071562/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0071562/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_3</x:t>
+    <x:t>3h 22min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0071562/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0071562/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_3</x:t>
   </x:si>
   <x:si>
     <x:t>The Dark Knight</x:t>
   </x:si>
   <x:si>
-    <x:t>2h 32min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0468569/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0468569/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_4</x:t>
+    <x:t>2h 32min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0468569/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0468569/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_4</x:t>
   </x:si>
   <x:si>
     <x:t>12 Angry Men</x:t>
@@ -94,37 +94,37 @@
     <x:t>8.9</x:t>
   </x:si>
   <x:si>
-    <x:t>1h 36min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0050083/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0050083/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_5</x:t>
+    <x:t>1h 36min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0050083/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0050083/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_5</x:t>
   </x:si>
   <x:si>
     <x:t>Schindler's List</x:t>
   </x:si>
   <x:si>
-    <x:t>3h 15min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0108052/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0108052/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_6</x:t>
+    <x:t>3h 15min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0108052/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0108052/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_6</x:t>
   </x:si>
   <x:si>
     <x:t>The Lord of the Rings: The Return of the King</x:t>
   </x:si>
   <x:si>
-    <x:t>3h 21min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0167260/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0167260/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_7</x:t>
+    <x:t>3h 21min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0167260/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0167260/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_7</x:t>
   </x:si>
   <x:si>
     <x:t>Pulp Fiction</x:t>
@@ -133,34 +133,34 @@
     <x:t>8.8</x:t>
   </x:si>
   <x:si>
-    <x:t>2h 34min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0110912/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0110912/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_8</x:t>
+    <x:t>2h 34min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0110912/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0110912/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_8</x:t>
   </x:si>
   <x:si>
     <x:t>The Good, the Bad and the Ugly</x:t>
   </x:si>
   <x:si>
-    <x:t>2h 58min </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0060196/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0060196/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_9</x:t>
+    <x:t>2h 58min</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0060196/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0060196/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_9</x:t>
   </x:si>
   <x:si>
     <x:t>The Lord of the Rings: The Fellowship of the Ring</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.imdb.com/title/tt0120737/reviews?ref_=tt_ql_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.imdb.com/title/tt0120737/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=XRRJ31K8YE4EPM3QWFA7&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_10</x:t>
+    <x:t>https://www.imdb.com/title/tt0120737/reviews/?ref_=tt_ql_urv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.imdb.com/title/tt0120737/?pf_rd_m=A2FGELUUNOQJNL&amp;pf_rd_p=e31d89dd-322d-4646-8962-327b42fe94b1&amp;pf_rd_r=RWE8JVD7XF7XZK82PY1Z&amp;pf_rd_s=center-1&amp;pf_rd_t=15506&amp;pf_rd_i=top&amp;ref_=chttp_tt_10</x:t>
   </x:si>
 </x:sst>
 </file>
